--- a/test-data/data1.xlsx
+++ b/test-data/data1.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="32">
   <si>
     <t>ORDER</t>
   </si>
@@ -28,6 +28,9 @@
     <t>CDATE</t>
   </si>
   <si>
+    <t>CTIME</t>
+  </si>
+  <si>
     <t>WARD</t>
   </si>
   <si>
@@ -58,9 +61,21 @@
     <t>JOHN</t>
   </si>
   <si>
+    <t>1A</t>
+  </si>
+  <si>
+    <t>urine</t>
+  </si>
+  <si>
+    <t>PSA</t>
+  </si>
+  <si>
     <t>A</t>
   </si>
   <si>
+    <t>PSA mucoid</t>
+  </si>
+  <si>
     <t>B</t>
   </si>
   <si>
@@ -73,16 +88,34 @@
     <t>E</t>
   </si>
   <si>
+    <t>5C</t>
+  </si>
+  <si>
+    <t>blood</t>
+  </si>
+  <si>
     <t>JONES</t>
   </si>
   <si>
     <t>BOB</t>
+  </si>
+  <si>
+    <t>SICU</t>
+  </si>
+  <si>
+    <t>respiratory</t>
+  </si>
+  <si>
+    <t>wound</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="m/d/yyyy"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <sz val="10.0"/>
@@ -110,11 +143,17 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="20" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -379,27 +418,51 @@
       <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1">
         <v>1.0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D2" s="1">
         <v>1.0</v>
       </c>
-      <c r="K2" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="M2" s="1">
+      <c r="E2" s="2">
+        <v>43831.0</v>
+      </c>
+      <c r="F2" s="3">
+        <v>0.625</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L2" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="N2" s="1">
         <v>3.0</v>
       </c>
     </row>
@@ -408,21 +471,42 @@
         <v>1.0</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D3" s="1">
         <v>1.0</v>
       </c>
-      <c r="K3" s="1">
+      <c r="E3" s="2">
+        <v>43831.0</v>
+      </c>
+      <c r="F3" s="3">
+        <v>0.625</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L3" s="1">
         <v>3.0</v>
       </c>
-      <c r="L3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="M3" s="1">
+      <c r="M3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="N3" s="1">
         <v>4.0</v>
       </c>
     </row>
@@ -431,21 +515,42 @@
         <v>1.0</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D4" s="1">
         <v>1.0</v>
       </c>
-      <c r="K4" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="L4" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="M4" s="1">
+      <c r="E4" s="2">
+        <v>43831.0</v>
+      </c>
+      <c r="F4" s="3">
+        <v>0.625</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L4" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="N4" s="1">
         <v>3.0</v>
       </c>
     </row>
@@ -454,21 +559,42 @@
         <v>1.0</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D5" s="1">
         <v>1.0</v>
       </c>
-      <c r="K5" s="1">
+      <c r="E5" s="2">
+        <v>43831.0</v>
+      </c>
+      <c r="F5" s="3">
+        <v>0.625</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L5" s="1">
         <v>4.0</v>
       </c>
-      <c r="L5" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="M5" s="1">
+      <c r="M5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="N5" s="1">
         <v>2.0</v>
       </c>
     </row>
@@ -477,21 +603,42 @@
         <v>1.0</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D6" s="1">
         <v>1.0</v>
       </c>
-      <c r="K6" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="L6" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="M6" s="1">
+      <c r="E6" s="2">
+        <v>43831.0</v>
+      </c>
+      <c r="F6" s="3">
+        <v>0.625</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L6" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="N6" s="1">
         <v>6.0</v>
       </c>
     </row>
@@ -500,21 +647,42 @@
         <v>2.0</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D7" s="1">
         <v>1.0</v>
       </c>
-      <c r="K7" s="1">
+      <c r="E7" s="2">
+        <v>43954.0</v>
+      </c>
+      <c r="F7" s="3">
+        <v>0.15625</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L7" s="1">
         <v>5.0</v>
       </c>
-      <c r="L7" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="M7" s="1">
+      <c r="M7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="N7" s="1">
         <v>7.0</v>
       </c>
     </row>
@@ -523,21 +691,42 @@
         <v>2.0</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D8" s="1">
         <v>1.0</v>
       </c>
-      <c r="K8" s="1">
+      <c r="E8" s="2">
+        <v>43954.0</v>
+      </c>
+      <c r="F8" s="3">
+        <v>0.15625</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L8" s="1">
         <v>7.0</v>
       </c>
-      <c r="L8" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="M8" s="1">
+      <c r="M8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="N8" s="1">
         <v>6.0</v>
       </c>
     </row>
@@ -546,21 +735,42 @@
         <v>3.0</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="D9" s="1">
         <v>2.0</v>
       </c>
-      <c r="K9" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="L9" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="M9" s="1">
+      <c r="E9" s="2">
+        <v>44189.0</v>
+      </c>
+      <c r="F9" s="3">
+        <v>0.5166666666666667</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L9" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="M9" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="N9" s="1">
         <v>1.0</v>
       </c>
     </row>
@@ -569,21 +779,42 @@
         <v>3.0</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="D10" s="1">
         <v>2.0</v>
       </c>
-      <c r="K10" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="L10" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="M10" s="1">
+      <c r="E10" s="2">
+        <v>44189.0</v>
+      </c>
+      <c r="F10" s="3">
+        <v>0.5166666666666667</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L10" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="M10" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="N10" s="1">
         <v>2.0</v>
       </c>
     </row>
@@ -592,93 +823,114 @@
         <v>4.0</v>
       </c>
       <c r="B11" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D11" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="E11" s="2">
+        <v>44196.0</v>
+      </c>
+      <c r="F11" s="3">
+        <v>0.05763888888888889</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K11" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="L11" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="M11" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D11" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="K11" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="L11" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="M11" s="1">
+      <c r="N11" s="1">
         <v>3.0</v>
       </c>
     </row>
     <row r="24">
-      <c r="J24" s="2"/>
-      <c r="K24" s="2"/>
-      <c r="L24" s="2"/>
-      <c r="M24" s="2"/>
-      <c r="N24" s="2"/>
-      <c r="O24" s="2"/>
-      <c r="P24" s="2"/>
-      <c r="Q24" s="2"/>
+      <c r="K24" s="4"/>
+      <c r="L24" s="4"/>
+      <c r="M24" s="4"/>
+      <c r="N24" s="4"/>
+      <c r="O24" s="4"/>
+      <c r="P24" s="4"/>
+      <c r="Q24" s="4"/>
+      <c r="R24" s="4"/>
     </row>
     <row r="25">
-      <c r="J25" s="2"/>
-      <c r="K25" s="2"/>
-      <c r="L25" s="2"/>
-      <c r="M25" s="2"/>
-      <c r="N25" s="3"/>
-      <c r="O25" s="3"/>
-      <c r="P25" s="3"/>
-      <c r="Q25" s="3"/>
+      <c r="K25" s="4"/>
+      <c r="L25" s="4"/>
+      <c r="M25" s="4"/>
+      <c r="N25" s="4"/>
+      <c r="O25" s="5"/>
+      <c r="P25" s="5"/>
+      <c r="Q25" s="5"/>
+      <c r="R25" s="5"/>
     </row>
     <row r="26">
-      <c r="J26" s="2"/>
-      <c r="K26" s="2"/>
-      <c r="L26" s="2"/>
-      <c r="M26" s="2"/>
-      <c r="N26" s="3"/>
-      <c r="O26" s="3"/>
-      <c r="P26" s="3"/>
-      <c r="Q26" s="3"/>
+      <c r="K26" s="4"/>
+      <c r="L26" s="4"/>
+      <c r="M26" s="4"/>
+      <c r="N26" s="4"/>
+      <c r="O26" s="5"/>
+      <c r="P26" s="5"/>
+      <c r="Q26" s="5"/>
+      <c r="R26" s="5"/>
     </row>
     <row r="27">
-      <c r="J27" s="2"/>
-      <c r="K27" s="2"/>
-      <c r="L27" s="2"/>
-      <c r="M27" s="3"/>
-      <c r="N27" s="2"/>
-      <c r="O27" s="3"/>
-      <c r="P27" s="3"/>
-      <c r="Q27" s="3"/>
+      <c r="K27" s="4"/>
+      <c r="L27" s="4"/>
+      <c r="M27" s="4"/>
+      <c r="N27" s="5"/>
+      <c r="O27" s="4"/>
+      <c r="P27" s="5"/>
+      <c r="Q27" s="5"/>
+      <c r="R27" s="5"/>
     </row>
     <row r="28">
-      <c r="J28" s="2"/>
-      <c r="K28" s="2"/>
-      <c r="L28" s="2"/>
-      <c r="M28" s="2"/>
-      <c r="N28" s="3"/>
-      <c r="O28" s="2"/>
-      <c r="P28" s="3"/>
-      <c r="Q28" s="2"/>
+      <c r="K28" s="4"/>
+      <c r="L28" s="4"/>
+      <c r="M28" s="4"/>
+      <c r="N28" s="4"/>
+      <c r="O28" s="5"/>
+      <c r="P28" s="4"/>
+      <c r="Q28" s="5"/>
+      <c r="R28" s="4"/>
     </row>
     <row r="29">
-      <c r="J29" s="2"/>
-      <c r="K29" s="2"/>
-      <c r="L29" s="2"/>
-      <c r="M29" s="3"/>
-      <c r="N29" s="2"/>
-      <c r="O29" s="3"/>
-      <c r="P29" s="3"/>
-      <c r="Q29" s="3"/>
+      <c r="K29" s="4"/>
+      <c r="L29" s="4"/>
+      <c r="M29" s="4"/>
+      <c r="N29" s="5"/>
+      <c r="O29" s="4"/>
+      <c r="P29" s="5"/>
+      <c r="Q29" s="5"/>
+      <c r="R29" s="5"/>
     </row>
     <row r="30">
-      <c r="J30" s="2"/>
-      <c r="K30" s="2"/>
-      <c r="L30" s="2"/>
-      <c r="M30" s="3"/>
-      <c r="N30" s="3"/>
-      <c r="O30" s="3"/>
-      <c r="P30" s="2"/>
-      <c r="Q30" s="3"/>
+      <c r="K30" s="4"/>
+      <c r="L30" s="4"/>
+      <c r="M30" s="4"/>
+      <c r="N30" s="5"/>
+      <c r="O30" s="5"/>
+      <c r="P30" s="5"/>
+      <c r="Q30" s="4"/>
+      <c r="R30" s="5"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
